--- a/Template - Process Parameters and Properties.xlsx
+++ b/Template - Process Parameters and Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rww21/Library/CloudStorage/OneDrive-ImperialCollegeLondon/ML Code/For Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/rww21_ic_ac_uk/Documents/ML Code/For Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B0D4D5-2262-6346-9F60-480588E55B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C8B0D4D5-2262-6346-9F60-480588E55B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6433805F-372E-49DE-8A47-C6554128CC89}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -38,77 +38,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Claudia Santos</author>
-    <author>Jiwei Qin</author>
-  </authors>
-  <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{FFFF70A3-4F35-422A-8BBD-A22B3EDE3594}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Claudia Santos:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Based on the Andrew Number LED=P/(v*t)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{398FC038-8B7A-4AC5-9BE9-25200FF48750}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jiwei Qin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-VED=P/vht
-where P is the laser power (W), v the scan speed (mm/s), h the hatching space (mm), and t the layer thickness (mm). </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
@@ -298,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,19 +256,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -362,21 +278,6 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -535,94 +436,94 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,25 +922,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="U2272" sqref="U2272"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="10" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9" bestFit="1" customWidth="1"/>
     <col min="31" max="38" width="9" bestFit="1" customWidth="1"/>
@@ -1047,7 +948,7 @@
     <col min="55" max="57" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="76" thickBot="1">
+    <row r="1" spans="1:58" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,6 +1139,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>